--- a/20170423~20170527莆田维养项目部报销/20170423~20170527报销统计表.xlsx
+++ b/20170423~20170527莆田维养项目部报销/20170423~20170527报销统计表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
